--- a/template/Template-WT-3Surveys.xlsx
+++ b/template/Template-WT-3Surveys.xlsx
@@ -5,16 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MelinaStuff\BAM\dataImport\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MelinaStuff\BAM\WildTrax\WT-Integration\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C79FB54-203C-4FB1-8992-0DA8D846AF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1356720E-A2E2-45F7-957B-8BC9349ED688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-120" windowWidth="18240" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template-WT-3Surveys" sheetId="1" r:id="rId1"/>
     <sheet name="Field description" sheetId="2" r:id="rId2"/>
+    <sheet name="age" sheetId="5" r:id="rId3"/>
+    <sheet name="fm" sheetId="6" r:id="rId4"/>
+    <sheet name="pc_vt" sheetId="3" r:id="rId5"/>
+    <sheet name="pc_vt_detail" sheetId="13" r:id="rId6"/>
+    <sheet name="group" sheetId="7" r:id="rId7"/>
+    <sheet name="flyover" sheetId="8" r:id="rId8"/>
+    <sheet name="displaytype" sheetId="9" r:id="rId9"/>
+    <sheet name="nestevidence" sheetId="10" r:id="rId10"/>
+    <sheet name="behaviourother" sheetId="11" r:id="rId11"/>
+    <sheet name="atlas_breeding_code" sheetId="4" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="151">
   <si>
     <t>Fieldname</t>
   </si>
@@ -155,9 +165,6 @@
     <t>Optional. Any original behaviour codes at end of file</t>
   </si>
   <si>
-    <t>comment</t>
-  </si>
-  <si>
     <t>missingindetections</t>
   </si>
   <si>
@@ -219,13 +226,283 @@
   </si>
   <si>
     <t>rawDistanceCode</t>
+  </si>
+  <si>
+    <t>vocalization type, same options as for ARU vocalization type, fill in if available</t>
+  </si>
+  <si>
+    <t>further detail on vocalization type, E.g Drumming, Counter Singing, fill in if available</t>
+  </si>
+  <si>
+    <t>any age related information</t>
+  </si>
+  <si>
+    <t>any sex related information</t>
+  </si>
+  <si>
+    <t>any group related information</t>
+  </si>
+  <si>
+    <t>Yes/No field for flyover</t>
+  </si>
+  <si>
+    <t>any display related information</t>
+  </si>
+  <si>
+    <t>any nest related information</t>
+  </si>
+  <si>
+    <t>any behviour that does not fit in the other columns</t>
+  </si>
+  <si>
+    <t>Fill in atlas code letters if these are part of original data</t>
+  </si>
+  <si>
+    <t>pc_vt</t>
+  </si>
+  <si>
+    <t>pc_vt_detail</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>fm</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>flyover</t>
+  </si>
+  <si>
+    <t>behaviourother</t>
+  </si>
+  <si>
+    <t>atlas_breeding_code</t>
+  </si>
+  <si>
+    <t>Elligible value</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Species observed in its breeding season (no breeding evidence)</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Species observed in its breeding season in suitable nesting habitat</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	Singing male(s) present, or breeding calls heard, in suitable nesting habitat in breeding season</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	At least 7 individuals singing or producing other sounds associated with breeding (e.g., calls or drumming), heard during the same visit to a single square and in suitable nesting habitat during the species' breeding season.</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Pair observed in suitable nesting habitat in nesting season</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Permanent territory presumed through registration of territorial song, or the occurrence of an adult bird, at the same place, in breeding habitat, on at least two days a week or more apart, during its breeding season. Use discretion when using this code.</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Courtship or display, including interaction between a male and a female or two males, including courtship feeding or copulation.</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Visiting probable nest site</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Agitated behaviour or anxiety calls of an adult</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Brood Patch on adult female or cloacal protuberance on adult male</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Nest-building or excavation of nest hole by a wren or a woodpecker</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>Nest-building or excavation of nest hole by a species other than a wren or a woodpecker</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Distraction display or injury feigning</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>Used nest or egg shells found (occupied or laid within the period of the survey)</t>
+  </si>
+  <si>
+    <t>FY</t>
+  </si>
+  <si>
+    <t>Recently fledged young (nidicolous species) or downy yound (nidifugous species) incapable of sustained flight</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>Adult leaving or entering nest sites in circumstances indicating occupied nest</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>Adult carying fecal sac</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Adult carying food for young</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Nest containing eggs</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Nest with young seen or heard</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Counter-singing, counter-calling, other male to male vocal interaction (BAM code)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>DNC</t>
+  </si>
+  <si>
+    <t>Did not collect</t>
+  </si>
+  <si>
+    <t>age_code</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>Juvenile</t>
+  </si>
+  <si>
+    <t>Fledgling</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>fm_code</t>
+  </si>
+  <si>
+    <t>group_code</t>
+  </si>
+  <si>
+    <t>Flock</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>flyover_status</t>
+  </si>
+  <si>
+    <t>displaytype</t>
+  </si>
+  <si>
+    <t>display_type</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Aerial</t>
+  </si>
+  <si>
+    <t>Distraction</t>
+  </si>
+  <si>
+    <t>Auditory</t>
+  </si>
+  <si>
+    <t>nestevidence</t>
+  </si>
+  <si>
+    <t>vocalization_type</t>
+  </si>
+  <si>
+    <t>Song</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Non-vocal</t>
+  </si>
+  <si>
+    <t>comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,8 +637,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,8 +828,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -657,8 +950,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -701,12 +1050,69 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="49">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -738,6 +1144,13 @@
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_age" xfId="43" xr:uid="{E62E0337-D0F2-429F-A41D-9B45B3E721D5}"/>
+    <cellStyle name="Normal_displaytype" xfId="47" xr:uid="{1D902BEE-F471-459C-8D4F-93935AC448C1}"/>
+    <cellStyle name="Normal_flyover" xfId="46" xr:uid="{E6002AE8-DE08-4A74-A621-9AFEEBD03C24}"/>
+    <cellStyle name="Normal_fm" xfId="44" xr:uid="{7033964C-B441-4870-86B9-48AD447C4B3F}"/>
+    <cellStyle name="Normal_group" xfId="45" xr:uid="{F483AE85-0C51-4E8B-898F-3A1D1A9EC8A4}"/>
+    <cellStyle name="Normal_nestevidence" xfId="48" xr:uid="{A424EBDE-A0C0-4B13-A34E-51A46DDD5950}"/>
+    <cellStyle name="Normal_pc_atlas_breeding_code" xfId="42" xr:uid="{58FA5B5A-D2D6-43E8-948E-CB681CE311E0}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
@@ -1062,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,10 +1520,10 @@
         <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="M1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N1" t="s">
         <v>22</v>
@@ -1119,57 +1532,57 @@
         <v>24</v>
       </c>
       <c r="P1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1">
         <v>40337.219444444447</v>
       </c>
       <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
         <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
       </c>
       <c r="I2">
         <v>3</v>
       </c>
       <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
         <v>46</v>
       </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -1180,43 +1593,43 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1">
         <v>40337.219444444447</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
         <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
         <v>46</v>
       </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
       <c r="M3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" t="s">
         <v>53</v>
-      </c>
-      <c r="N3" t="s">
-        <v>54</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -1227,43 +1640,43 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1">
         <v>40337.219444444447</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
         <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
         <v>46</v>
       </c>
-      <c r="K4" t="s">
-        <v>47</v>
-      </c>
       <c r="M4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -1274,43 +1687,43 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1">
         <v>40337.302777777775</v>
       </c>
       <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
         <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
         <v>46</v>
       </c>
-      <c r="K5" t="s">
-        <v>47</v>
-      </c>
       <c r="M5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -1321,49 +1734,314 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1">
         <v>40337.302777777775</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
         <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s">
         <v>46</v>
       </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
       <c r="M6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" t="s">
         <v>53</v>
-      </c>
-      <c r="N6" t="s">
-        <v>54</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F49700-A118-4A26-BBA6-3C2176301048}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A255D28-745D-456D-B524-96CFD5D44824}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA142FB-D81A-44FB-A3E6-0780B32C0671}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1373,292 +2051,731 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EE5358-4F14-44D6-A43A-3D135697E4CD}">
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062AF7AE-97BC-4BF1-84CF-0D2F589BAA5B}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E7ED9D-2236-49AF-A31E-7C780BF12099}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5ED8756-C73B-48DD-8C8C-EFB7BB9AF0E1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB58168-8640-4FBD-BEB4-88230559C7BB}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14001C61-9934-400F-B773-27915A4F59BE}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568E1D58-C112-4A7D-9A34-749C32B547C1}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/template/Template-WT-3Surveys.xlsx
+++ b/template/Template-WT-3Surveys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MelinaStuff\BAM\WildTrax\WT-Integration\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1356720E-A2E2-45F7-957B-8BC9349ED688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1499A2C-67D0-47CA-ACD7-06EC56E0EB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template-WT-3Surveys" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="114">
   <si>
     <t>Fieldname</t>
   </si>
@@ -84,15 +84,6 @@
     <t>The observer code who conducted the survey. When observer name are provided in the source data, we create a lookup table where observer name get a serial number assigned using this format:  [Dataset Code]_[serial number]</t>
   </si>
   <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>Optional. Which ever format the raw observer data came in</t>
-  </si>
-  <si>
     <t>distanceMethod</t>
   </si>
   <si>
@@ -111,18 +102,6 @@
     <t>AOU code used by WildTrax. See species codes table</t>
   </si>
   <si>
-    <t>original_species</t>
-  </si>
-  <si>
-    <t>Optional. Species code provided in the source data if it differ from  WildTrax code, field is null where source data  match WildTrax species list</t>
-  </si>
-  <si>
-    <t>scientificname</t>
-  </si>
-  <si>
-    <t>Optional. Binomial classification (Genus, species) of the species</t>
-  </si>
-  <si>
     <t>isHeard</t>
   </si>
   <si>
@@ -150,27 +129,12 @@
     <t xml:space="preserve">The distance band the species was detected in. Refer to distance_band_codes table </t>
   </si>
   <si>
-    <t>Optional. Original distance band used in source file or source protocol</t>
-  </si>
-  <si>
     <t>durationinterval</t>
   </si>
   <si>
     <t xml:space="preserve">The duration interval the species was detected in. Refer to duration_interval_codes table </t>
   </si>
   <si>
-    <t>Optional. Original duration interval used in source file or source protocol</t>
-  </si>
-  <si>
-    <t>Optional. Any original behaviour codes at end of file</t>
-  </si>
-  <si>
-    <t>missingindetections</t>
-  </si>
-  <si>
-    <t>Optional. Comments on missing information</t>
-  </si>
-  <si>
     <t>0m-INF</t>
   </si>
   <si>
@@ -201,84 +165,12 @@
     <t>QC-ATLAS_01</t>
   </si>
   <si>
-    <t>Benoit Giroux</t>
-  </si>
-  <si>
-    <t>Merle d'Amerique</t>
-  </si>
-  <si>
-    <t>Corneille d'Amerique</t>
-  </si>
-  <si>
-    <t>Petite buse</t>
-  </si>
-  <si>
     <t>As needed</t>
   </si>
   <si>
-    <t>originalBehaviourData</t>
-  </si>
-  <si>
-    <t>rawObserver</t>
-  </si>
-  <si>
-    <t>rawDurationCode</t>
-  </si>
-  <si>
-    <t>rawDistanceCode</t>
-  </si>
-  <si>
-    <t>vocalization type, same options as for ARU vocalization type, fill in if available</t>
-  </si>
-  <si>
-    <t>further detail on vocalization type, E.g Drumming, Counter Singing, fill in if available</t>
-  </si>
-  <si>
-    <t>any age related information</t>
-  </si>
-  <si>
-    <t>any sex related information</t>
-  </si>
-  <si>
-    <t>any group related information</t>
-  </si>
-  <si>
-    <t>Yes/No field for flyover</t>
-  </si>
-  <si>
-    <t>any display related information</t>
-  </si>
-  <si>
-    <t>any nest related information</t>
-  </si>
-  <si>
-    <t>any behviour that does not fit in the other columns</t>
-  </si>
-  <si>
-    <t>Fill in atlas code letters if these are part of original data</t>
-  </si>
-  <si>
-    <t>pc_vt</t>
-  </si>
-  <si>
     <t>pc_vt_detail</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>fm</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>flyover</t>
-  </si>
-  <si>
-    <t>behaviourother</t>
-  </si>
-  <si>
     <t>atlas_breeding_code</t>
   </si>
   <si>
@@ -460,9 +352,6 @@
   </si>
   <si>
     <t>flyover_status</t>
-  </si>
-  <si>
-    <t>displaytype</t>
   </si>
   <si>
     <t>display_type</t>
@@ -835,7 +724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -951,32 +840,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
@@ -1058,57 +921,51 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1473,19 +1330,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1493,290 +1351,209 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1">
         <v>40337.219444444447</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I2">
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-      <c r="Q2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1">
         <v>40337.219444444447</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1">
         <v>40337.219444444447</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1">
         <v>40337.302777777775</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5">
-        <v>2</v>
-      </c>
-      <c r="Q5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1">
         <v>40337.302777777775</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1795,28 +1572,28 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>145</v>
+      <c r="A1" s="16" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>45</v>
+      <c r="A2" s="17" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>46</v>
+      <c r="A3" s="17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>122</v>
+      <c r="A4" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>124</v>
+      <c r="A5" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1849,199 +1626,199 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="9"/>
+    <col min="2" max="2" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B19" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B20" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B21" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B22" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B23" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B24" s="4" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2051,10 +1828,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2077,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2110,7 +1887,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -2119,12 +1896,12 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -2133,7 +1910,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2152,7 +1929,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -2161,12 +1938,12 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -2175,12 +1952,12 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -2189,26 +1966,26 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -2217,12 +1994,12 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -2231,12 +2008,12 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -2245,251 +2022,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2509,38 +2042,38 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>126</v>
+      <c r="A1" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>127</v>
+      <c r="A2" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>128</v>
+      <c r="A3" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>129</v>
+      <c r="A4" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>130</v>
+      <c r="A5" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>124</v>
+      <c r="A6" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>122</v>
+      <c r="A7" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2559,33 +2092,33 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>133</v>
+      <c r="A1" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>131</v>
+      <c r="A2" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>132</v>
+      <c r="A3" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>130</v>
+      <c r="A4" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>124</v>
+      <c r="A5" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>122</v>
+      <c r="A6" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2605,22 +2138,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2640,7 +2173,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2659,33 +2192,33 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>134</v>
+      <c r="A1" s="10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>135</v>
+      <c r="A2" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>136</v>
+      <c r="A3" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>137</v>
+      <c r="A4" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>124</v>
+      <c r="A5" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>122</v>
+      <c r="A6" s="11" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2704,28 +2237,28 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>138</v>
+      <c r="A1" s="12" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>45</v>
+      <c r="A2" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>46</v>
+      <c r="A3" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>122</v>
+      <c r="A4" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>124</v>
+      <c r="A5" s="13" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2744,38 +2277,38 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>140</v>
+      <c r="A1" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>141</v>
+      <c r="A2" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>142</v>
+      <c r="A3" s="15" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>143</v>
+      <c r="A4" s="15" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>144</v>
+      <c r="A5" s="15" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>122</v>
+      <c r="A6" s="15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>124</v>
+      <c r="A7" s="15" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
